--- a/003_グループ演習延長戦/002_表置き場/001_第4章_セキュリティ対策方針実施根拠.xlsx
+++ b/003_グループ演習延長戦/002_表置き場/001_第4章_セキュリティ対策方針実施根拠.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BF21D6-228F-46AD-8690-05084B3A7E84}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D787E0BB-0693-4626-82F9-E03B09CE0947}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{067EDACE-3E5D-403C-84F4-FC20BCB49C3D}"/>
+    <workbookView xWindow="10590" yWindow="90" windowWidth="9825" windowHeight="10725" xr2:uid="{067EDACE-3E5D-403C-84F4-FC20BCB49C3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>T.Export</t>
   </si>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OE.Power_Stop</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OE.More_User</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -118,6 +114,14 @@
   </si>
   <si>
     <t>A.Manage_Safe_Place</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OE.Power_Cuts</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -398,7 +402,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -455,6 +459,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,7 +795,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -821,7 +843,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>10</v>
@@ -837,8 +859,12 @@
       <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -859,7 +885,9 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -877,7 +905,9 @@
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -897,14 +927,20 @@
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="I6" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -921,10 +957,14 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -937,12 +977,16 @@
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="G8" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -953,17 +997,19 @@
       <c r="O8" s="9"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -977,10 +1023,16 @@
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -990,7 +1042,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="9"/>
+      <c r="O10" s="24"/>
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -999,8 +1051,12 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -1008,9 +1064,15 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="6"/>
+      <c r="M11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>26</v>
+      </c>
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1019,7 +1081,9 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="D12" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -1035,7 +1099,7 @@
     </row>
     <row r="13" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1046,7 +1110,9 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="K13" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1055,7 +1121,7 @@
     </row>
     <row r="14" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1065,7 +1131,9 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="J14" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
@@ -1075,7 +1143,7 @@
     </row>
     <row r="15" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1087,7 +1155,9 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="L15" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="12"/>

--- a/003_グループ演習延長戦/002_表置き場/001_第4章_セキュリティ対策方針実施根拠.xlsx
+++ b/003_グループ演習延長戦/002_表置き場/001_第4章_セキュリティ対策方針実施根拠.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D787E0BB-0693-4626-82F9-E03B09CE0947}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFB0E63-D97C-4380-8879-DF218FD9376B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10590" yWindow="90" windowWidth="9825" windowHeight="10725" xr2:uid="{067EDACE-3E5D-403C-84F4-FC20BCB49C3D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{067EDACE-3E5D-403C-84F4-FC20BCB49C3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>T.Export</t>
   </si>
@@ -122,6 +122,30 @@
   </si>
   <si>
     <t>OE.Power_Cuts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OT.Input</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P.Easy_Password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OT.Easy_Password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T.Brute_Force</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T.Easy_Password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T.Access</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -175,24 +199,12 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6F8FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -402,80 +414,65 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -792,375 +789,493 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A3ECD-5881-4618-9C42-91E815C3FA33}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.75" style="1" customWidth="1"/>
-    <col min="3" max="11" width="3.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.875" style="1" customWidth="1"/>
-    <col min="13" max="14" width="3.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="3" max="8" width="3.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="3.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.75" style="1" customWidth="1"/>
+    <col min="14" max="15" width="3.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.875" style="1" customWidth="1"/>
+    <col min="17" max="18" width="3.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:16" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="13"/>
-      <c r="B2" s="17" t="s">
+    <row r="1" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:20" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="M2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="O2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="P2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="Q2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="R2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="S2" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="14" t="s">
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="10"/>
+    </row>
+    <row r="4" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="10"/>
+    </row>
+    <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="10"/>
+    </row>
+    <row r="6" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
+      <c r="B7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
+      <c r="B8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="7" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="10"/>
+    </row>
+    <row r="10" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
+      <c r="B10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="10"/>
+    </row>
+    <row r="11" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="10"/>
+    </row>
+    <row r="12" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
+      <c r="B12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="7" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" s="10"/>
+    </row>
+    <row r="14" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="7" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="10"/>
+    </row>
+    <row r="16" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="10" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="10"/>
+    </row>
+    <row r="17" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="12"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/003_グループ演習延長戦/002_表置き場/001_第4章_セキュリティ対策方針実施根拠.xlsx
+++ b/003_グループ演習延長戦/002_表置き場/001_第4章_セキュリティ対策方針実施根拠.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFB0E63-D97C-4380-8879-DF218FD9376B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64971CAD-9C39-4CAE-B2E3-1CC6B54213E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{067EDACE-3E5D-403C-84F4-FC20BCB49C3D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>T.Export</t>
   </si>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>T.Access</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -792,7 +796,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -886,7 +890,9 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="K3" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -934,7 +940,9 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="I5" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
@@ -959,10 +967,14 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="M6" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
@@ -1014,7 +1026,9 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="K8" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="L8" s="13" t="s">
         <v>26</v>
       </c>
@@ -1072,7 +1086,9 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="K10" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
